--- a/pickaboo__testCase.xlsx
+++ b/pickaboo__testCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHub\testCaseWriting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E62B83-E4C8-43A6-9EAD-669E333D01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98D4DD-4113-4952-BEFF-1650B4D4ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>PASS</t>
   </si>
@@ -268,12 +268,102 @@
   <si>
     <t>Blank Logo</t>
   </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Verify email address in web chat</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Verify phone number in web chat</t>
+  </si>
+  <si>
+    <t>message is sent.</t>
+  </si>
+  <si>
+    <t>1. goto  url.
+2. click on "Chat with us"
+3. fill the input feilds.
+4. click on "Submit"</t>
+  </si>
+  <si>
+    <t>pop-up alert should be provided for wrong email address.</t>
+  </si>
+  <si>
+    <t>no message should be sent.</t>
+  </si>
+  <si>
+    <t>Invalid Phone Number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mahmuda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mahmuda5250@gmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+01826852500
+laptop
+latest acer model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fahima
+----------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>018268525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+trimmer
+price of trimmer</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -358,6 +448,14 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -531,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -587,9 +685,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -614,12 +709,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -630,9 +719,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,7 +780,212 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1593,7 +1884,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1612,10 +1903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1631,16 +1922,16 @@
       <c r="G1" s="4">
         <v>44715</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1659,14 +1950,14 @@
       <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <f>COUNTIF(G7:G49, "PASS")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8" t="s">
         <v>11</v>
@@ -1683,16 +1974,16 @@
       <c r="H3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f>COUNTIF(G8:G49, "Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1711,25 +2002,25 @@
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f>COUNTIF(G8:G49, "WARNING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <f>SUM(I2:I4:I3)</f>
         <v>0</v>
       </c>
@@ -1744,7 +2035,7 @@
       <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1770,10 +2061,10 @@
       <c r="B7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1788,7 +2079,7 @@
       <c r="H7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="34" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1799,10 +2090,10 @@
       <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -1817,7 +2108,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1826,10 +2117,10 @@
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -1844,7 +2135,7 @@
       <c r="H9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="34" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1855,10 +2146,10 @@
       <c r="B10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="16" t="s">
@@ -1873,7 +2164,7 @@
       <c r="H10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1884,10 +2175,10 @@
       <c r="B11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -1902,704 +2193,743 @@
       <c r="H11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="38" t="s">
-        <v>37</v>
+    <row r="12" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="34" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G16" s="17"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G18" s="24"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="43"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="37"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="36"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="36"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="37"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="42"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="36"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="36"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="42"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="36"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="42"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="36"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="37"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="42"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="36"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="42"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="36"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="43"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="37"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="42"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="36"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="42"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="36"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="43"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="37"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="42"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="36"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="42"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="36"/>
+      <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="44"/>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="44"/>
+      <c r="D51" s="40"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="44"/>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="44"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="44"/>
+      <c r="D54" s="40"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="44"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="44"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="44"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="44"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="44"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="44"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="44"/>
+      <c r="D61" s="40"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="44"/>
+      <c r="D62" s="40"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="44"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="44"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="44"/>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="44"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="44"/>
+      <c r="D67" s="40"/>
     </row>
     <row r="68" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="44"/>
+      <c r="D68" s="40"/>
     </row>
     <row r="69" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="44"/>
+      <c r="D69" s="40"/>
     </row>
     <row r="70" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="44"/>
+      <c r="D70" s="40"/>
     </row>
     <row r="71" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="44"/>
+      <c r="D71" s="40"/>
     </row>
     <row r="72" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="44"/>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="44"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="44"/>
+      <c r="D74" s="40"/>
     </row>
     <row r="75" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="44"/>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="44"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="44"/>
+      <c r="D77" s="40"/>
     </row>
     <row r="78" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="44"/>
+      <c r="D78" s="40"/>
     </row>
     <row r="79" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="44"/>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="44"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="44"/>
+      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D82" s="44"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D83" s="44"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D84" s="44"/>
+      <c r="D84" s="40"/>
     </row>
     <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D85" s="44"/>
+      <c r="D85" s="40"/>
     </row>
     <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D86" s="44"/>
+      <c r="D86" s="40"/>
     </row>
     <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D87" s="44"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D88" s="44"/>
+      <c r="D88" s="40"/>
     </row>
     <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D89" s="44"/>
+      <c r="D89" s="40"/>
     </row>
     <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="44"/>
+      <c r="D90" s="40"/>
     </row>
     <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="44"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="44"/>
+      <c r="D92" s="40"/>
     </row>
     <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D93" s="44"/>
+      <c r="D93" s="40"/>
     </row>
     <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D94" s="44"/>
+      <c r="D94" s="40"/>
     </row>
     <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D95" s="44"/>
+      <c r="D95" s="40"/>
     </row>
     <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="44"/>
+      <c r="D96" s="40"/>
     </row>
     <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D97" s="44"/>
+      <c r="D97" s="40"/>
     </row>
     <row r="98" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="44"/>
+      <c r="D98" s="40"/>
     </row>
     <row r="99" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="44"/>
+      <c r="D99" s="40"/>
     </row>
     <row r="100" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="44"/>
+      <c r="D100" s="40"/>
     </row>
     <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="44"/>
+      <c r="D101" s="40"/>
     </row>
     <row r="102" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="44"/>
+      <c r="D102" s="40"/>
     </row>
     <row r="103" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="44"/>
+      <c r="D103" s="40"/>
     </row>
     <row r="104" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="44"/>
+      <c r="D104" s="40"/>
     </row>
     <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="44"/>
+      <c r="D105" s="40"/>
     </row>
     <row r="106" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="44"/>
+      <c r="D106" s="40"/>
     </row>
     <row r="107" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="44"/>
+      <c r="D107" s="40"/>
     </row>
     <row r="108" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D108" s="44"/>
+      <c r="D108" s="40"/>
     </row>
     <row r="109" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D109" s="44"/>
+      <c r="D109" s="40"/>
     </row>
     <row r="110" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D110" s="44"/>
+      <c r="D110" s="40"/>
     </row>
     <row r="111" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="44"/>
+      <c r="D111" s="40"/>
     </row>
     <row r="112" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D112" s="44"/>
+      <c r="D112" s="40"/>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D113" s="44"/>
+      <c r="D113" s="40"/>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="44"/>
+      <c r="D114" s="40"/>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D115" s="44"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D116" s="44"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D117" s="44"/>
+      <c r="D117" s="40"/>
     </row>
     <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D118" s="44"/>
+      <c r="D118" s="40"/>
     </row>
     <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="44"/>
+      <c r="D119" s="40"/>
     </row>
     <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D120" s="44"/>
+      <c r="D120" s="40"/>
     </row>
     <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="44"/>
+      <c r="D121" s="40"/>
     </row>
     <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="44"/>
+      <c r="D122" s="40"/>
     </row>
     <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="44"/>
+      <c r="D123" s="40"/>
     </row>
     <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="44"/>
+      <c r="D124" s="40"/>
     </row>
     <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="44"/>
+      <c r="D125" s="40"/>
     </row>
     <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="44"/>
+      <c r="D126" s="40"/>
     </row>
     <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="44"/>
+      <c r="D127" s="40"/>
     </row>
     <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="44"/>
+      <c r="D128" s="40"/>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D129" s="44"/>
+      <c r="D129" s="40"/>
     </row>
     <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D130" s="44"/>
+      <c r="D130" s="40"/>
     </row>
     <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D131" s="44"/>
+      <c r="D131" s="40"/>
     </row>
     <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D132" s="44"/>
+      <c r="D132" s="40"/>
     </row>
     <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D133" s="44"/>
+      <c r="D133" s="40"/>
     </row>
     <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D134" s="44"/>
+      <c r="D134" s="40"/>
     </row>
     <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D135" s="44"/>
+      <c r="D135" s="40"/>
     </row>
     <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D136" s="44"/>
+      <c r="D136" s="40"/>
     </row>
     <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="44"/>
+      <c r="D137" s="40"/>
     </row>
     <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D138" s="44"/>
+      <c r="D138" s="40"/>
     </row>
     <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D139" s="44"/>
+      <c r="D139" s="40"/>
     </row>
     <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D140" s="44"/>
+      <c r="D140" s="40"/>
     </row>
     <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D141" s="44"/>
+      <c r="D141" s="40"/>
     </row>
     <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D142" s="44"/>
+      <c r="D142" s="40"/>
     </row>
     <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D143" s="44"/>
+      <c r="D143" s="40"/>
     </row>
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D144" s="44"/>
+      <c r="D144" s="40"/>
     </row>
     <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D145" s="44"/>
+      <c r="D145" s="40"/>
     </row>
     <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="44"/>
+      <c r="D146" s="40"/>
     </row>
     <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="44"/>
+      <c r="D147" s="40"/>
     </row>
     <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D148" s="44"/>
+      <c r="D148" s="40"/>
     </row>
     <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D149" s="44"/>
+      <c r="D149" s="40"/>
     </row>
     <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D150" s="44"/>
+      <c r="D150" s="40"/>
     </row>
     <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D151" s="44"/>
+      <c r="D151" s="40"/>
     </row>
     <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3442,308 +3772,408 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="G14 G17 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+  <conditionalFormatting sqref="G14 H8:H9 G23">
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 G17 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+  <conditionalFormatting sqref="G14 H8:H9 G23">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 G17 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+  <conditionalFormatting sqref="G14 H8:H9 G23">
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 G17 H8:H9 G23">
-    <cfRule type="containsBlanks" dxfId="56" priority="64">
+  <conditionalFormatting sqref="G14 H8:H9 G23">
+    <cfRule type="containsBlanks" dxfId="76" priority="84">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="72" priority="76">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsBlanks" dxfId="68" priority="72">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsBlanks" dxfId="64" priority="68">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="containsBlanks" dxfId="60" priority="64">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
+      <formula>LEN(TRIM(G41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="I2">
     <cfRule type="containsBlanks" dxfId="52" priority="56">
-      <formula>LEN(TRIM(G26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="I3">
     <cfRule type="containsBlanks" dxfId="48" priority="52">
-      <formula>LEN(TRIM(G29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsBlanks" dxfId="44" priority="48">
-      <formula>LEN(TRIM(G35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G20">
     <cfRule type="containsBlanks" dxfId="40" priority="44">
-      <formula>LEN(TRIM(G38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsBlanks" dxfId="36" priority="40">
-      <formula>LEN(TRIM(G41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G44">
     <cfRule type="containsBlanks" dxfId="32" priority="36">
-      <formula>LEN(TRIM(I2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G47">
     <cfRule type="containsBlanks" dxfId="28" priority="32">
-      <formula>LEN(TRIM(I3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+      <formula>LEN(TRIM(G47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H10">
     <cfRule type="containsBlanks" dxfId="24" priority="28">
-      <formula>LEN(TRIM(H7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+      <formula>LEN(TRIM(H10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="H11">
     <cfRule type="containsBlanks" dxfId="20" priority="24">
-      <formula>LEN(TRIM(G20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+      <formula>LEN(TRIM(H11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsBlanks" dxfId="16" priority="20">
-      <formula>LEN(TRIM(G32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+      <formula>LEN(TRIM(H12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="H13">
     <cfRule type="containsBlanks" dxfId="12" priority="16">
-      <formula>LEN(TRIM(G44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+      <formula>LEN(TRIM(H13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+  <conditionalFormatting sqref="G15">
     <cfRule type="containsBlanks" dxfId="8" priority="12">
-      <formula>LEN(TRIM(G47))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+      <formula>LEN(TRIM(G15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="G16">
     <cfRule type="containsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="G17">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="G17">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="G17">
     <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(H11))=0</formula>
+      <formula>LEN(TRIM(G17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1346" yWindow="406" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G14 G17 G23 G26 G29 G35 G38 G41 H7:H11 G20 G32 G44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 H7:H13 G20 G32 G14:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3753,15 +4183,19 @@
     <hyperlink ref="C8" r:id="rId3" xr:uid="{1E106EEB-C53E-4044-97CC-6CDA5A75DE5E}"/>
     <hyperlink ref="I10" r:id="rId4" xr:uid="{C80917F3-C450-4D27-8AB9-A390A56B1B9B}"/>
     <hyperlink ref="I9" r:id="rId5" xr:uid="{0A589F2B-A75C-49B0-9BE7-8AE1C249B7BC}"/>
-    <hyperlink ref="I12" r:id="rId6" xr:uid="{7577D197-C560-406E-8C40-36BB56839B47}"/>
-    <hyperlink ref="I14" r:id="rId7" xr:uid="{D176EB64-056E-4638-926C-A3976B08707C}"/>
-    <hyperlink ref="I13" r:id="rId8" xr:uid="{59A0A9C8-CE0E-49FD-A3DD-DF6F1295691C}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{38B42022-62DE-4E49-9FF6-CAD122CA2D7A}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{EAAF102A-6F3F-40E7-99A5-0AF8BB7BE105}"/>
-    <hyperlink ref="I11" r:id="rId11" xr:uid="{39CDD862-A29F-4CBC-918A-CC8AA0E2147A}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{98E42E08-E046-42B3-874B-40B4406B9AD6}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{D176EB64-056E-4638-926C-A3976B08707C}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{38B42022-62DE-4E49-9FF6-CAD122CA2D7A}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{EAAF102A-6F3F-40E7-99A5-0AF8BB7BE105}"/>
+    <hyperlink ref="I11" r:id="rId9" xr:uid="{39CDD862-A29F-4CBC-918A-CC8AA0E2147A}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{98E42E08-E046-42B3-874B-40B4406B9AD6}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{6E9F49E6-AE4C-4807-9037-A5C09717D99A}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{66A84053-25CC-4F6C-B0FC-343A86CE9495}"/>
+    <hyperlink ref="I13" r:id="rId13" xr:uid="{773434A1-3DC9-4D9F-AB67-70377BD6EA12}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{EEDD1F04-F77C-44BE-A017-632B51263721}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{7DF71D9C-3CBE-403C-A0F0-FCDB13ADBB52}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{706C8BC1-4B57-4D2B-8C10-1643BACB8432}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
+  <pageSetup orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>
--- a/pickaboo__testCase.xlsx
+++ b/pickaboo__testCase.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHub\testCaseWriting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98D4DD-4113-4952-BEFF-1650B4D4ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A567625-1BD9-4471-9A32-769B836BDF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="3" r:id="rId1"/>
+    <sheet name="TC for Home page" sheetId="3" r:id="rId1"/>
+    <sheet name="TC for Registration process " sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="mm">'Test Cases'!$I$8</definedName>
-    <definedName name="verify_package_Design">'Test Cases'!$I$8</definedName>
+    <definedName name="mm" localSheetId="1">'TC for Registration process '!$I$8</definedName>
+    <definedName name="mm">'TC for Home page'!$I$8</definedName>
+    <definedName name="verify_package_Design" localSheetId="1">'TC for Registration process '!$I$8</definedName>
+    <definedName name="verify_package_Design">'TC for Home page'!$I$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>PASS</t>
   </si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t>TC002</t>
-  </si>
-  <si>
-    <t>Valid phone number</t>
   </si>
   <si>
     <t>x</t>
@@ -233,9 +233,6 @@
     <t xml:space="preserve">item is not added. </t>
   </si>
   <si>
-    <t>item should be added on mycart.</t>
-  </si>
-  <si>
     <t>Verify my cart</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
   </si>
   <si>
     <t>pop-up alert should be provided for wrong email address.</t>
-  </si>
-  <si>
-    <t>no message should be sent.</t>
   </si>
   <si>
     <t>Invalid Phone Number</t>
@@ -357,6 +351,79 @@
 trimmer
 price of trimmer</t>
     </r>
+  </si>
+  <si>
+    <t>item should be added on my cart.</t>
+  </si>
+  <si>
+    <t>Verify customer mobile number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>go to url:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pickaboo.com/customer/account/create/</t>
+    </r>
+  </si>
+  <si>
+    <t>should not be able to sent message.</t>
+  </si>
+  <si>
+    <t>1. goto  url.
+2. fill the input fields.
+3. click on generate otp.</t>
+  </si>
+  <si>
+    <t>Test Cases for 
+Registration process</t>
+  </si>
+  <si>
+    <t>Invalid Number</t>
+  </si>
+  <si>
+    <t>message is not sent.</t>
+  </si>
+  <si>
+    <t>Verify otp</t>
+  </si>
+  <si>
+    <t>01826852500</t>
+  </si>
+  <si>
+    <t>otp should be sent.</t>
+  </si>
+  <si>
+    <t>otp is sent.</t>
+  </si>
+  <si>
+    <t>wrong otp</t>
+  </si>
+  <si>
+    <t>1. goto  url.
+2. fill the otp field.
+3. click on verify otp.</t>
+  </si>
+  <si>
+    <t>otp should not be verified.</t>
+  </si>
+  <si>
+    <t>otp is verified.</t>
+  </si>
+  <si>
+    <t>Verify Otp</t>
   </si>
 </sst>
 </file>
@@ -629,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -754,6 +821,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -780,7 +850,909 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="168">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1878,13 +2850,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
-    <tabColor rgb="FF002060"/>
+    <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1895,20 +2867,20 @@
     <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="25" style="6" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -1922,18 +2894,18 @@
       <c r="G1" s="4">
         <v>44715</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1956,14 +2928,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1980,18 +2952,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -2008,15 +2980,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
@@ -2033,7 +3005,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>23</v>
@@ -2059,28 +3031,28 @@
         <v>26</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2088,22 +3060,22 @@
         <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>0</v>
@@ -2112,112 +3084,112 @@
     </row>
     <row r="9" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>0</v>
@@ -2226,31 +3198,31 @@
     </row>
     <row r="13" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2262,9 +3234,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
@@ -2275,9 +3245,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -2288,9 +3256,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
       <c r="H16" s="31"/>
-      <c r="I16" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
@@ -2301,9 +3267,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
@@ -3773,402 +4737,402 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="81" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="82" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="83" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="containsBlanks" dxfId="76" priority="84">
+    <cfRule type="containsBlanks" dxfId="164" priority="84">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="73" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="74" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="75" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="72" priority="76">
+    <cfRule type="containsBlanks" dxfId="160" priority="76">
       <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="68" priority="72">
+    <cfRule type="containsBlanks" dxfId="156" priority="72">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="64" priority="68">
+    <cfRule type="containsBlanks" dxfId="152" priority="68">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="62" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="63" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="60" priority="64">
+    <cfRule type="containsBlanks" dxfId="148" priority="64">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
+    <cfRule type="containsBlanks" dxfId="144" priority="60">
       <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="52" priority="56">
+    <cfRule type="containsBlanks" dxfId="140" priority="56">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="48" priority="52">
+    <cfRule type="containsBlanks" dxfId="136" priority="52">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
+    <cfRule type="containsBlanks" dxfId="132" priority="48">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="40" priority="44">
+    <cfRule type="containsBlanks" dxfId="128" priority="44">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="36" priority="40">
+    <cfRule type="containsBlanks" dxfId="124" priority="40">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="32" priority="36">
+    <cfRule type="containsBlanks" dxfId="120" priority="36">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsBlanks" dxfId="28" priority="32">
+    <cfRule type="containsBlanks" dxfId="116" priority="32">
       <formula>LEN(TRIM(G47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsBlanks" dxfId="24" priority="28">
+    <cfRule type="containsBlanks" dxfId="112" priority="28">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsBlanks" dxfId="20" priority="24">
+    <cfRule type="containsBlanks" dxfId="108" priority="24">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
+    <cfRule type="containsBlanks" dxfId="104" priority="20">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsBlanks" dxfId="12" priority="16">
+    <cfRule type="containsBlanks" dxfId="100" priority="16">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsBlanks" dxfId="8" priority="12">
+    <cfRule type="containsBlanks" dxfId="96" priority="12">
       <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
+    <cfRule type="containsBlanks" dxfId="92" priority="8">
       <formula>LEN(TRIM(G16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="88" priority="4">
       <formula>LEN(TRIM(G17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4183,19 +5147,2287 @@
     <hyperlink ref="C8" r:id="rId3" xr:uid="{1E106EEB-C53E-4044-97CC-6CDA5A75DE5E}"/>
     <hyperlink ref="I10" r:id="rId4" xr:uid="{C80917F3-C450-4D27-8AB9-A390A56B1B9B}"/>
     <hyperlink ref="I9" r:id="rId5" xr:uid="{0A589F2B-A75C-49B0-9BE7-8AE1C249B7BC}"/>
-    <hyperlink ref="I14" r:id="rId6" xr:uid="{D176EB64-056E-4638-926C-A3976B08707C}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{38B42022-62DE-4E49-9FF6-CAD122CA2D7A}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{EAAF102A-6F3F-40E7-99A5-0AF8BB7BE105}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{39CDD862-A29F-4CBC-918A-CC8AA0E2147A}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{98E42E08-E046-42B3-874B-40B4406B9AD6}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{6E9F49E6-AE4C-4807-9037-A5C09717D99A}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{66A84053-25CC-4F6C-B0FC-343A86CE9495}"/>
-    <hyperlink ref="I13" r:id="rId13" xr:uid="{773434A1-3DC9-4D9F-AB67-70377BD6EA12}"/>
-    <hyperlink ref="I15" r:id="rId14" xr:uid="{EEDD1F04-F77C-44BE-A017-632B51263721}"/>
-    <hyperlink ref="I16" r:id="rId15" xr:uid="{7DF71D9C-3CBE-403C-A0F0-FCDB13ADBB52}"/>
-    <hyperlink ref="I17" r:id="rId16" xr:uid="{706C8BC1-4B57-4D2B-8C10-1643BACB8432}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{38B42022-62DE-4E49-9FF6-CAD122CA2D7A}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{EAAF102A-6F3F-40E7-99A5-0AF8BB7BE105}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{39CDD862-A29F-4CBC-918A-CC8AA0E2147A}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{98E42E08-E046-42B3-874B-40B4406B9AD6}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{6E9F49E6-AE4C-4807-9037-A5C09717D99A}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{66A84053-25CC-4F6C-B0FC-343A86CE9495}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{773434A1-3DC9-4D9F-AB67-70377BD6EA12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId17"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4958B-F519-4275-887E-C9553DC8C61C}">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I981"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44715</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44715</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44715</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44715</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <f>COUNTIF(G7:G49, "PASS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <f>COUNTIF(G8:G49, "Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="22">
+        <f>COUNTIF(G8:G49, "WARNING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="23">
+        <f>SUM(I2:I4:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="37">
+        <v>18268525000</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="37">
+        <v>18268525</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="40"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="40"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="40"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="40"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="40"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="40"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="40"/>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="40"/>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="40"/>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="40"/>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="40"/>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="40"/>
+    </row>
+    <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="40"/>
+    </row>
+    <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="40"/>
+    </row>
+    <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="40"/>
+    </row>
+    <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D86" s="40"/>
+    </row>
+    <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="40"/>
+    </row>
+    <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="40"/>
+    </row>
+    <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D89" s="40"/>
+    </row>
+    <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D90" s="40"/>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="40"/>
+    </row>
+    <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="40"/>
+    </row>
+    <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="40"/>
+    </row>
+    <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="40"/>
+    </row>
+    <row r="99" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="40"/>
+    </row>
+    <row r="100" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D100" s="40"/>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="40"/>
+    </row>
+    <row r="102" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="40"/>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="40"/>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="40"/>
+    </row>
+    <row r="106" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="40"/>
+    </row>
+    <row r="107" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="40"/>
+    </row>
+    <row r="108" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D108" s="40"/>
+    </row>
+    <row r="109" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D109" s="40"/>
+    </row>
+    <row r="110" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D110" s="40"/>
+    </row>
+    <row r="111" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="40"/>
+    </row>
+    <row r="112" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="40"/>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D113" s="40"/>
+    </row>
+    <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D114" s="40"/>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D115" s="40"/>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D116" s="40"/>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D117" s="40"/>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D118" s="40"/>
+    </row>
+    <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="40"/>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="40"/>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D121" s="40"/>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D122" s="40"/>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="40"/>
+    </row>
+    <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="40"/>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="40"/>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="40"/>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="40"/>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="40"/>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="40"/>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D130" s="40"/>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="40"/>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="40"/>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="40"/>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="40"/>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="40"/>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="40"/>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="40"/>
+    </row>
+    <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="40"/>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="40"/>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="40"/>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D141" s="40"/>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="40"/>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="40"/>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="40"/>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="40"/>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="40"/>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="40"/>
+    </row>
+    <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="40"/>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="40"/>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="40"/>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="40"/>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G14 H9 G23">
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14 H9 G23">
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14 H9 G23">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14 H9 G23">
+    <cfRule type="containsBlanks" dxfId="84" priority="88">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="80" priority="84">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsBlanks" dxfId="76" priority="80">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsBlanks" dxfId="72" priority="76">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="containsBlanks" dxfId="68" priority="72">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsBlanks" dxfId="64" priority="68">
+      <formula>LEN(TRIM(G41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="containsBlanks" dxfId="60" priority="64">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsBlanks" dxfId="52" priority="56">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="48" priority="52">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsBlanks" dxfId="40" priority="44">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="containsBlanks" dxfId="36" priority="40">
+      <formula>LEN(TRIM(G47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsBlanks" dxfId="28" priority="32">
+      <formula>LEN(TRIM(H11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsBlanks" dxfId="24" priority="28">
+      <formula>LEN(TRIM(H12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
+      <formula>LEN(TRIM(H13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
+      <formula>LEN(TRIM(G15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsBlanks" dxfId="12" priority="16">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsBlanks" dxfId="8" priority="12">
+      <formula>LEN(TRIM(G17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(H8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(H10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 G14:G17 G20 G32 H7:H13" xr:uid="{00E42314-79F0-431E-B732-B3ABF60BC2BE}">
+      <formula1>"PASS,FAIL,WARNING"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{818B2B69-0C03-4BBA-AA6F-237A41F029A4}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{4B3BD43B-259D-48AD-9044-74DB97983B58}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{B837DEF5-CBB2-4A5E-8D9E-6242944EE4CB}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{32666789-EC96-4CC6-BBC7-84BA6B1C2033}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{6B004C8A-3424-4C54-A7D2-3680B299B734}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{45BC3485-42B5-4FD8-9242-266DC344A575}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>
--- a/pickaboo__testCase.xlsx
+++ b/pickaboo__testCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHub\testCaseWriting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A567625-1BD9-4471-9A32-769B836BDF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC38E5AC-3129-4467-8154-6EBE3E846755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC for Home page" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
   <si>
     <t>PASS</t>
   </si>
@@ -424,6 +424,52 @@
   </si>
   <si>
     <t>Verify Otp</t>
+  </si>
+  <si>
+    <t>Verify password</t>
+  </si>
+  <si>
+    <t>wrong confirm password</t>
+  </si>
+  <si>
+    <t>1. goto  url.
+2. fill the input fields.</t>
+  </si>
+  <si>
+    <t>pop up alert should be given.</t>
+  </si>
+  <si>
+    <t>mahmuda5250@gmail</t>
+  </si>
+  <si>
+    <t>pop up alert is not given.</t>
+  </si>
+  <si>
+    <t>Verify mail</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Verify page design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. goto  url. </t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>text is not center aligned.</t>
+  </si>
+  <si>
+    <t>social media icons should be center aligned in mobile version.</t>
+  </si>
+  <si>
+    <t>"Or, Login with" text should be center aligned in mobile version.</t>
+  </si>
+  <si>
+    <t>social media icons are not center aligned.</t>
   </si>
 </sst>
 </file>
@@ -850,7 +896,212 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="188">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2854,9 +3105,9 @@
   </sheetPr>
   <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2923,8 +3174,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="20">
-        <f>COUNTIF(G7:G49, "PASS")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,8 +3197,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="21">
-        <f>COUNTIF(G8:G49, "Fail")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2993,8 +3242,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="23">
-        <f>SUM(I2:I4:I3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,15 +3474,33 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
@@ -4736,408 +5002,428 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="167" priority="81" operator="equal">
+  <conditionalFormatting sqref="H8:H9 G23">
+    <cfRule type="cellIs" dxfId="187" priority="85" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="166" priority="82" operator="equal">
+  <conditionalFormatting sqref="H8:H9 G23">
+    <cfRule type="cellIs" dxfId="186" priority="86" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="cellIs" dxfId="165" priority="83" operator="equal">
+  <conditionalFormatting sqref="H8:H9 G23">
+    <cfRule type="cellIs" dxfId="185" priority="87" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 H8:H9 G23">
-    <cfRule type="containsBlanks" dxfId="164" priority="84">
+  <conditionalFormatting sqref="H8:H9 G23">
+    <cfRule type="containsBlanks" dxfId="184" priority="88">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="163" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="77" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="162" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="78" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="161" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="79" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="160" priority="76">
+    <cfRule type="containsBlanks" dxfId="180" priority="80">
       <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="159" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="73" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="158" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="74" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="157" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="75" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="156" priority="72">
+    <cfRule type="containsBlanks" dxfId="176" priority="76">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="155" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="154" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="153" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="152" priority="68">
+    <cfRule type="containsBlanks" dxfId="172" priority="72">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="150" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="149" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="148" priority="64">
+    <cfRule type="containsBlanks" dxfId="168" priority="68">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="147" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="61" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="146" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="62" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="145" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="63" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="144" priority="60">
+    <cfRule type="containsBlanks" dxfId="164" priority="64">
       <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="143" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="142" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="141" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="140" priority="56">
+    <cfRule type="containsBlanks" dxfId="160" priority="60">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="138" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="136" priority="52">
+    <cfRule type="containsBlanks" dxfId="156" priority="56">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="135" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="134" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="133" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="132" priority="48">
+    <cfRule type="containsBlanks" dxfId="152" priority="52">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="131" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="130" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="129" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="128" priority="44">
+    <cfRule type="containsBlanks" dxfId="148" priority="48">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="126" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="125" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="124" priority="40">
+    <cfRule type="containsBlanks" dxfId="144" priority="44">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="123" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="121" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="120" priority="36">
+    <cfRule type="containsBlanks" dxfId="140" priority="40">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="118" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="117" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsBlanks" dxfId="116" priority="32">
+    <cfRule type="containsBlanks" dxfId="136" priority="36">
       <formula>LEN(TRIM(G47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsBlanks" dxfId="112" priority="28">
+    <cfRule type="containsBlanks" dxfId="132" priority="32">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsBlanks" dxfId="108" priority="24">
+    <cfRule type="containsBlanks" dxfId="128" priority="28">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="104" priority="20">
+    <cfRule type="containsBlanks" dxfId="124" priority="24">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsBlanks" dxfId="100" priority="16">
+    <cfRule type="containsBlanks" dxfId="120" priority="20">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="99" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="98" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsBlanks" dxfId="96" priority="12">
+    <cfRule type="containsBlanks" dxfId="116" priority="16">
       <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="93" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="92" priority="8">
+    <cfRule type="containsBlanks" dxfId="112" priority="12">
       <formula>LEN(TRIM(G16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="88" priority="4">
+    <cfRule type="containsBlanks" dxfId="108" priority="8">
       <formula>LEN(TRIM(G17))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(H14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations xWindow="1346" yWindow="406" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 H7:H13 G20 G32 G14:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 H7:H14 G20 G32 G15:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5154,9 +5440,11 @@
     <hyperlink ref="C12" r:id="rId10" xr:uid="{6E9F49E6-AE4C-4807-9037-A5C09717D99A}"/>
     <hyperlink ref="C13" r:id="rId11" xr:uid="{66A84053-25CC-4F6C-B0FC-343A86CE9495}"/>
     <hyperlink ref="I13" r:id="rId12" xr:uid="{773434A1-3DC9-4D9F-AB67-70377BD6EA12}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{F2519DA9-AAC7-4397-96FB-3EB427ED76D1}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{0121F979-DC87-4956-A9FE-0B151011C596}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
+  <pageSetup orientation="landscape" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5167,9 +5455,9 @@
   </sheetPr>
   <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5236,8 +5524,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="20">
-        <f>COUNTIF(G7:G49, "PASS")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5260,8 +5547,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="21">
-        <f>COUNTIF(G8:G49, "Fail")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,7 +5593,7 @@
       </c>
       <c r="I5" s="23">
         <f>SUM(I2:I4:I3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5452,59 +5738,149 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="34"/>
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -6986,436 +7362,456 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G14 H9 G23">
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="containsBlanks" dxfId="104" priority="108">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="100" priority="104">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsBlanks" dxfId="96" priority="100">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsBlanks" dxfId="92" priority="96">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="containsBlanks" dxfId="88" priority="92">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 H9 G23">
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 H9 G23">
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14 H9 G23">
+  <conditionalFormatting sqref="G41">
     <cfRule type="containsBlanks" dxfId="84" priority="88">
-      <formula>LEN(TRIM(G9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+      <formula>LEN(TRIM(G41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="I2">
     <cfRule type="containsBlanks" dxfId="80" priority="84">
-      <formula>LEN(TRIM(G26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="I3">
     <cfRule type="containsBlanks" dxfId="76" priority="80">
-      <formula>LEN(TRIM(G29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsBlanks" dxfId="72" priority="76">
-      <formula>LEN(TRIM(G35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G20">
     <cfRule type="containsBlanks" dxfId="68" priority="72">
-      <formula>LEN(TRIM(G38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsBlanks" dxfId="64" priority="68">
-      <formula>LEN(TRIM(G41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G44">
     <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G44">
     <cfRule type="containsBlanks" dxfId="60" priority="64">
-      <formula>LEN(TRIM(I2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G47">
     <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="G47">
     <cfRule type="containsBlanks" dxfId="56" priority="60">
-      <formula>LEN(TRIM(I3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>LEN(TRIM(G47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="52" priority="56">
-      <formula>LEN(TRIM(H7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsBlanks" dxfId="36" priority="36">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="48" priority="52">
-      <formula>LEN(TRIM(G20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsBlanks" dxfId="32" priority="32">
+      <formula>LEN(TRIM(G17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
-      <formula>LEN(TRIM(G32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsBlanks" dxfId="28" priority="28">
+      <formula>LEN(TRIM(H8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="40" priority="44">
-      <formula>LEN(TRIM(G44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsBlanks" dxfId="24" priority="24">
+      <formula>LEN(TRIM(H10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="containsBlanks" dxfId="36" priority="40">
-      <formula>LEN(TRIM(G47))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="containsBlanks" dxfId="20" priority="20">
+      <formula>LEN(TRIM(H11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsBlanks" dxfId="28" priority="32">
-      <formula>LEN(TRIM(H11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="containsBlanks" dxfId="16" priority="16">
+      <formula>LEN(TRIM(H12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="24" priority="28">
-      <formula>LEN(TRIM(H12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
+      <formula>LEN(TRIM(H13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsBlanks" dxfId="20" priority="24">
-      <formula>LEN(TRIM(H13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
+      <formula>LEN(TRIM(H14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
-      <formula>LEN(TRIM(G15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="12" priority="16">
-      <formula>LEN(TRIM(G16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="8" priority="12">
-      <formula>LEN(TRIM(G17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(H10))=0</formula>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(H15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 G14:G17 G20 G32 H7:H13" xr:uid="{00E42314-79F0-431E-B732-B3ABF60BC2BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 H7:H15 G20 G32 G16:G17" xr:uid="{00E42314-79F0-431E-B732-B3ABF60BC2BE}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7426,8 +7822,18 @@
     <hyperlink ref="C9" r:id="rId4" xr:uid="{32666789-EC96-4CC6-BBC7-84BA6B1C2033}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{6B004C8A-3424-4C54-A7D2-3680B299B734}"/>
     <hyperlink ref="I10" r:id="rId6" xr:uid="{45BC3485-42B5-4FD8-9242-266DC344A575}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{87480DA0-9334-47F4-9E5A-0995C4F46256}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{5F8A611C-2173-4104-8015-18F10E6B1DD1}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{17759471-6A53-4F51-AF36-EC9723BE6E0A}"/>
+    <hyperlink ref="I12" r:id="rId10" xr:uid="{F68C0FB6-8835-447C-81C3-939F637C37C9}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{08BEE5D0-3197-49C9-B1A4-FC4B15909AAE}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{6E851A13-706F-4791-8D9B-A47826F4DE94}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{B9714875-4B73-4393-BBC2-DF46F0868C27}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{E79E72FA-1418-4CAD-9B0E-3CBD397CE18A}"/>
+    <hyperlink ref="I15" r:id="rId15" xr:uid="{6D9735EF-E609-402B-9DF4-4A6E59386F8E}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{2EA3C201-48A0-4FDB-926B-4D654A0E8927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId7"/>
+  <pageSetup orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>
--- a/pickaboo__testCase.xlsx
+++ b/pickaboo__testCase.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHub\testCaseWriting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC38E5AC-3129-4467-8154-6EBE3E846755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB6532-3214-4DEF-BBA6-4F54067FFF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC for Home page" sheetId="3" r:id="rId1"/>
-    <sheet name="TC for Registration process " sheetId="4" r:id="rId2"/>
+    <sheet name="TC for Registration process " sheetId="4" r:id="rId1"/>
+    <sheet name="TC for Home page" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="mm" localSheetId="1">'TC for Registration process '!$I$8</definedName>
+    <definedName name="mm" localSheetId="0">'TC for Registration process '!$I$8</definedName>
     <definedName name="mm">'TC for Home page'!$I$8</definedName>
-    <definedName name="verify_package_Design" localSheetId="1">'TC for Registration process '!$I$8</definedName>
+    <definedName name="verify_package_Design" localSheetId="0">'TC for Registration process '!$I$8</definedName>
     <definedName name="verify_package_Design">'TC for Home page'!$I$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -896,171 +896,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="188">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="172">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3099,13 +2935,2403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4958B-F519-4275-887E-C9553DC8C61C}">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I981"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44715</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44715</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44715</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44715</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="22">
+        <f>COUNTIF(G8:G49, "WARNING")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="23">
+        <f>SUM(I2:I4:I3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="37">
+        <v>18268525000</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="37">
+        <v>18268525</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="40"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="40"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="40"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="40"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="40"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="40"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="40"/>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="40"/>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="40"/>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="40"/>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="40"/>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="40"/>
+    </row>
+    <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="40"/>
+    </row>
+    <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="40"/>
+    </row>
+    <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="40"/>
+    </row>
+    <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D86" s="40"/>
+    </row>
+    <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="40"/>
+    </row>
+    <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="40"/>
+    </row>
+    <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D89" s="40"/>
+    </row>
+    <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D90" s="40"/>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="40"/>
+    </row>
+    <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="40"/>
+    </row>
+    <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="40"/>
+    </row>
+    <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="40"/>
+    </row>
+    <row r="99" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="40"/>
+    </row>
+    <row r="100" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D100" s="40"/>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="40"/>
+    </row>
+    <row r="102" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="40"/>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="40"/>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="40"/>
+    </row>
+    <row r="106" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="40"/>
+    </row>
+    <row r="107" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="40"/>
+    </row>
+    <row r="108" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D108" s="40"/>
+    </row>
+    <row r="109" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D109" s="40"/>
+    </row>
+    <row r="110" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D110" s="40"/>
+    </row>
+    <row r="111" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="40"/>
+    </row>
+    <row r="112" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="40"/>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D113" s="40"/>
+    </row>
+    <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D114" s="40"/>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D115" s="40"/>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D116" s="40"/>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D117" s="40"/>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D118" s="40"/>
+    </row>
+    <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="40"/>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="40"/>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D121" s="40"/>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D122" s="40"/>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="40"/>
+    </row>
+    <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="40"/>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="40"/>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="40"/>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="40"/>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="40"/>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="40"/>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D130" s="40"/>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="40"/>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="40"/>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="40"/>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="40"/>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="40"/>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="40"/>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="40"/>
+    </row>
+    <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="40"/>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="40"/>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="40"/>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D141" s="40"/>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="40"/>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="40"/>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="40"/>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="40"/>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="40"/>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="40"/>
+    </row>
+    <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="40"/>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="40"/>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="40"/>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="40"/>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 G23">
+    <cfRule type="containsBlanks" dxfId="84" priority="108">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="80" priority="104">
+      <formula>LEN(TRIM(G26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="79" priority="97" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsBlanks" dxfId="76" priority="100">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="75" priority="93" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsBlanks" dxfId="72" priority="96">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="71" priority="89" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="containsBlanks" dxfId="68" priority="92">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsBlanks" dxfId="64" priority="88">
+      <formula>LEN(TRIM(G41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="containsBlanks" dxfId="60" priority="84">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="58" priority="78" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="57" priority="79" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsBlanks" dxfId="56" priority="80">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="54" priority="74" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsBlanks" dxfId="52" priority="76">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="49" priority="71" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="48" priority="72">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="47" priority="65" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsBlanks" dxfId="44" priority="68">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="43" priority="61" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsBlanks" dxfId="40" priority="64">
+      <formula>LEN(TRIM(G44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="containsBlanks" dxfId="36" priority="60">
+      <formula>LEN(TRIM(G47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsBlanks" dxfId="32" priority="36">
+      <formula>LEN(TRIM(G16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsBlanks" dxfId="28" priority="32">
+      <formula>LEN(TRIM(G17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsBlanks" dxfId="24" priority="28">
+      <formula>LEN(TRIM(H8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
+      <formula>LEN(TRIM(H10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
+      <formula>LEN(TRIM(H11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsBlanks" dxfId="12" priority="16">
+      <formula>LEN(TRIM(H12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsBlanks" dxfId="8" priority="12">
+      <formula>LEN(TRIM(H13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(H14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"WARNING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(H15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 H7:H15 G20 G32 G16:G17" xr:uid="{00E42314-79F0-431E-B732-B3ABF60BC2BE}">
+      <formula1>"PASS,FAIL,WARNING"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{818B2B69-0C03-4BBA-AA6F-237A41F029A4}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{4B3BD43B-259D-48AD-9044-74DB97983B58}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{B837DEF5-CBB2-4A5E-8D9E-6242944EE4CB}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{32666789-EC96-4CC6-BBC7-84BA6B1C2033}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{6B004C8A-3424-4C54-A7D2-3680B299B734}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{45BC3485-42B5-4FD8-9242-266DC344A575}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{87480DA0-9334-47F4-9E5A-0995C4F46256}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{5F8A611C-2173-4104-8015-18F10E6B1DD1}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{17759471-6A53-4F51-AF36-EC9723BE6E0A}"/>
+    <hyperlink ref="I12" r:id="rId10" xr:uid="{F68C0FB6-8835-447C-81C3-939F637C37C9}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{08BEE5D0-3197-49C9-B1A4-FC4B15909AAE}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{6E851A13-706F-4791-8D9B-A47826F4DE94}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{B9714875-4B73-4393-BBC2-DF46F0868C27}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{E79E72FA-1418-4CAD-9B0E-3CBD397CE18A}"/>
+    <hyperlink ref="I15" r:id="rId15" xr:uid="{6D9735EF-E609-402B-9DF4-4A6E59386F8E}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{2EA3C201-48A0-4FDB-926B-4D654A0E8927}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
@@ -5003,422 +7229,422 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9 G23">
-    <cfRule type="cellIs" dxfId="187" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="85" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9 G23">
-    <cfRule type="cellIs" dxfId="186" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="86" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9 G23">
-    <cfRule type="cellIs" dxfId="185" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="87" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9 G23">
-    <cfRule type="containsBlanks" dxfId="184" priority="88">
+    <cfRule type="containsBlanks" dxfId="168" priority="88">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="183" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="77" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="182" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="78" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="181" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="79" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="180" priority="80">
+    <cfRule type="containsBlanks" dxfId="164" priority="80">
       <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="179" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="73" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="178" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="74" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="177" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="75" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="176" priority="76">
+    <cfRule type="containsBlanks" dxfId="160" priority="76">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="175" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="174" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="173" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="172" priority="72">
+    <cfRule type="containsBlanks" dxfId="156" priority="72">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="171" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="65" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="170" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="66" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="169" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="67" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="168" priority="68">
+    <cfRule type="containsBlanks" dxfId="152" priority="68">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="167" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="166" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="62" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="165" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="63" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="164" priority="64">
+    <cfRule type="containsBlanks" dxfId="148" priority="64">
       <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="163" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="162" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="161" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="160" priority="60">
+    <cfRule type="containsBlanks" dxfId="144" priority="60">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="159" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="158" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="156" priority="56">
+    <cfRule type="containsBlanks" dxfId="140" priority="56">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="152" priority="52">
+    <cfRule type="containsBlanks" dxfId="136" priority="52">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="148" priority="48">
+    <cfRule type="containsBlanks" dxfId="132" priority="48">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="144" priority="44">
+    <cfRule type="containsBlanks" dxfId="128" priority="44">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="140" priority="40">
+    <cfRule type="containsBlanks" dxfId="124" priority="40">
       <formula>LEN(TRIM(G44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsBlanks" dxfId="136" priority="36">
+    <cfRule type="containsBlanks" dxfId="120" priority="36">
       <formula>LEN(TRIM(G47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsBlanks" dxfId="132" priority="32">
+    <cfRule type="containsBlanks" dxfId="116" priority="32">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsBlanks" dxfId="128" priority="28">
+    <cfRule type="containsBlanks" dxfId="112" priority="28">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="124" priority="24">
+    <cfRule type="containsBlanks" dxfId="108" priority="24">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="122" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsBlanks" dxfId="120" priority="20">
+    <cfRule type="containsBlanks" dxfId="104" priority="20">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsBlanks" dxfId="116" priority="16">
+    <cfRule type="containsBlanks" dxfId="100" priority="16">
       <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="112" priority="12">
+    <cfRule type="containsBlanks" dxfId="96" priority="12">
       <formula>LEN(TRIM(G16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="108" priority="8">
+    <cfRule type="containsBlanks" dxfId="92" priority="8">
       <formula>LEN(TRIM(G17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="88" priority="4">
       <formula>LEN(TRIM(H14))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5446,2394 +7672,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId15"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4958B-F519-4275-887E-C9553DC8C61C}">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="1" tint="0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:I981"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4">
-        <v>44715</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4">
-        <v>44715</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>44715</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>44715</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="22">
-        <f>COUNTIF(G8:G49, "WARNING")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="23">
-        <f>SUM(I2:I4:I3)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="37">
-        <v>18268525000</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="37">
-        <v>18268525</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="33"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="40"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="40"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="40"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="40"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="40"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="40"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="40"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="40"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="40"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="40"/>
-    </row>
-    <row r="65" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="40"/>
-    </row>
-    <row r="66" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="40"/>
-    </row>
-    <row r="67" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="40"/>
-    </row>
-    <row r="68" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="40"/>
-    </row>
-    <row r="69" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="40"/>
-    </row>
-    <row r="70" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="40"/>
-    </row>
-    <row r="71" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="40"/>
-    </row>
-    <row r="72" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="40"/>
-    </row>
-    <row r="73" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="40"/>
-    </row>
-    <row r="74" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="40"/>
-    </row>
-    <row r="75" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="40"/>
-    </row>
-    <row r="76" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="40"/>
-    </row>
-    <row r="77" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="40"/>
-    </row>
-    <row r="78" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="40"/>
-    </row>
-    <row r="79" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="40"/>
-    </row>
-    <row r="80" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="40"/>
-    </row>
-    <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="40"/>
-    </row>
-    <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D82" s="40"/>
-    </row>
-    <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D83" s="40"/>
-    </row>
-    <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D84" s="40"/>
-    </row>
-    <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D85" s="40"/>
-    </row>
-    <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D86" s="40"/>
-    </row>
-    <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D87" s="40"/>
-    </row>
-    <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D88" s="40"/>
-    </row>
-    <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D89" s="40"/>
-    </row>
-    <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="40"/>
-    </row>
-    <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="40"/>
-    </row>
-    <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="40"/>
-    </row>
-    <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D93" s="40"/>
-    </row>
-    <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D94" s="40"/>
-    </row>
-    <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D95" s="40"/>
-    </row>
-    <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="40"/>
-    </row>
-    <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D97" s="40"/>
-    </row>
-    <row r="98" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="40"/>
-    </row>
-    <row r="99" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="40"/>
-    </row>
-    <row r="100" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="40"/>
-    </row>
-    <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="40"/>
-    </row>
-    <row r="102" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="40"/>
-    </row>
-    <row r="103" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="40"/>
-    </row>
-    <row r="104" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="40"/>
-    </row>
-    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="40"/>
-    </row>
-    <row r="106" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="40"/>
-    </row>
-    <row r="107" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="40"/>
-    </row>
-    <row r="108" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D108" s="40"/>
-    </row>
-    <row r="109" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D109" s="40"/>
-    </row>
-    <row r="110" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D110" s="40"/>
-    </row>
-    <row r="111" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="40"/>
-    </row>
-    <row r="112" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D112" s="40"/>
-    </row>
-    <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D113" s="40"/>
-    </row>
-    <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="40"/>
-    </row>
-    <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D115" s="40"/>
-    </row>
-    <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D116" s="40"/>
-    </row>
-    <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D117" s="40"/>
-    </row>
-    <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D118" s="40"/>
-    </row>
-    <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="40"/>
-    </row>
-    <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D120" s="40"/>
-    </row>
-    <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="40"/>
-    </row>
-    <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="40"/>
-    </row>
-    <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="40"/>
-    </row>
-    <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="40"/>
-    </row>
-    <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="40"/>
-    </row>
-    <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="40"/>
-    </row>
-    <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="40"/>
-    </row>
-    <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="40"/>
-    </row>
-    <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D129" s="40"/>
-    </row>
-    <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D130" s="40"/>
-    </row>
-    <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D131" s="40"/>
-    </row>
-    <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D132" s="40"/>
-    </row>
-    <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D133" s="40"/>
-    </row>
-    <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D134" s="40"/>
-    </row>
-    <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D135" s="40"/>
-    </row>
-    <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D136" s="40"/>
-    </row>
-    <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="40"/>
-    </row>
-    <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D138" s="40"/>
-    </row>
-    <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D139" s="40"/>
-    </row>
-    <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D140" s="40"/>
-    </row>
-    <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D141" s="40"/>
-    </row>
-    <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D142" s="40"/>
-    </row>
-    <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D143" s="40"/>
-    </row>
-    <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D144" s="40"/>
-    </row>
-    <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D145" s="40"/>
-    </row>
-    <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="40"/>
-    </row>
-    <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="40"/>
-    </row>
-    <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D148" s="40"/>
-    </row>
-    <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D149" s="40"/>
-    </row>
-    <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D150" s="40"/>
-    </row>
-    <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D151" s="40"/>
-    </row>
-    <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H9 G23">
-    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 G23">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 G23">
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 G23">
-    <cfRule type="containsBlanks" dxfId="104" priority="108">
-      <formula>LEN(TRIM(G9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="100" priority="104">
-      <formula>LEN(TRIM(G26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="96" priority="100">
-      <formula>LEN(TRIM(G29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="92" priority="96">
-      <formula>LEN(TRIM(G35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="88" priority="92">
-      <formula>LEN(TRIM(G38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="84" priority="88">
-      <formula>LEN(TRIM(G41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="80" priority="84">
-      <formula>LEN(TRIM(I2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="76" priority="80">
-      <formula>LEN(TRIM(I3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsBlanks" dxfId="72" priority="76">
-      <formula>LEN(TRIM(H7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="68" priority="72">
-      <formula>LEN(TRIM(G20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="64" priority="68">
-      <formula>LEN(TRIM(G32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsBlanks" dxfId="60" priority="64">
-      <formula>LEN(TRIM(G44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
-      <formula>LEN(TRIM(G47))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsBlanks" dxfId="36" priority="36">
-      <formula>LEN(TRIM(G16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsBlanks" dxfId="32" priority="32">
-      <formula>LEN(TRIM(G17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsBlanks" dxfId="28" priority="28">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsBlanks" dxfId="24" priority="24">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsBlanks" dxfId="20" priority="20">
-      <formula>LEN(TRIM(H11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsBlanks" dxfId="16" priority="16">
-      <formula>LEN(TRIM(H12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
-      <formula>LEN(TRIM(H13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
-      <formula>LEN(TRIM(H14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(H15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G47 G44 G23 G26 G29 G35 G38 G41 H7:H15 G20 G32 G16:G17" xr:uid="{00E42314-79F0-431E-B732-B3ABF60BC2BE}">
-      <formula1>"PASS,FAIL,WARNING"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{818B2B69-0C03-4BBA-AA6F-237A41F029A4}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{4B3BD43B-259D-48AD-9044-74DB97983B58}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{B837DEF5-CBB2-4A5E-8D9E-6242944EE4CB}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{32666789-EC96-4CC6-BBC7-84BA6B1C2033}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{6B004C8A-3424-4C54-A7D2-3680B299B734}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{45BC3485-42B5-4FD8-9242-266DC344A575}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{87480DA0-9334-47F4-9E5A-0995C4F46256}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{5F8A611C-2173-4104-8015-18F10E6B1DD1}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{17759471-6A53-4F51-AF36-EC9723BE6E0A}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{F68C0FB6-8835-447C-81C3-939F637C37C9}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{08BEE5D0-3197-49C9-B1A4-FC4B15909AAE}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{6E851A13-706F-4791-8D9B-A47826F4DE94}"/>
-    <hyperlink ref="I14" r:id="rId13" xr:uid="{B9714875-4B73-4393-BBC2-DF46F0868C27}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{E79E72FA-1418-4CAD-9B0E-3CBD397CE18A}"/>
-    <hyperlink ref="I15" r:id="rId15" xr:uid="{6D9735EF-E609-402B-9DF4-4A6E59386F8E}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{2EA3C201-48A0-4FDB-926B-4D654A0E8927}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId17"/>
-</worksheet>
 </file>